--- a/graph.xlsx
+++ b/graph.xlsx
@@ -5,283 +5,278 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Lookup" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Add" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
-  <si>
-    <t xml:space="preserve">N</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bstree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.000035700</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.000072603</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.000123970</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   0.000140216</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000340</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000175271</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000400</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000204749</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000681</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000226018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000341</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000245660</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000099</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000259680</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000460</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000284591</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000679</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000315704</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000631</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000335951</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000761</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000365390</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000029</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000388452</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000449</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000429105</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000001949</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000489035</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000001089</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000549535</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000060</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000575139</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000001840</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000611433</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000001820</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000634506</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000000980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lookup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fnv</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000013898</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000005472 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000026119</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000011868 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000039449</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000017631 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000053224</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000025363 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000068388</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000032597 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000078755</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000033634 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000092169</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000043228 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000107156</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000051966 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000115709</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000058637 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000131812</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000064061 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000147374</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000066638 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000161392</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000076937 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000172830</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000080092 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000185495</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000096623 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000199236</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000105803 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000213820</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000109994 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000239227</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000118649 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000243892</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000128428 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000263747</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000138202</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000272192</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.000143021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T (BST)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T(Hash)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="87">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>bstree</t>
+  </si>
+  <si>
+    <t>hash</t>
+  </si>
+  <si>
+    <t>    0.000035700</t>
+  </si>
+  <si>
+    <t> 0.000000009</t>
+  </si>
+  <si>
+    <t>    0.000072603</t>
+  </si>
+  <si>
+    <t> 0.000000069</t>
+  </si>
+  <si>
+    <t>    0.000123970</t>
+  </si>
+  <si>
+    <t> 0.000000220</t>
+  </si>
+  <si>
+    <t>   0.000140216</t>
+  </si>
+  <si>
+    <t> 0.000000340</t>
+  </si>
+  <si>
+    <t> 0.000175271</t>
+  </si>
+  <si>
+    <t> 0.000000400</t>
+  </si>
+  <si>
+    <t> 0.000204749</t>
+  </si>
+  <si>
+    <t> 0.000000681</t>
+  </si>
+  <si>
+    <t> 0.000226018</t>
+  </si>
+  <si>
+    <t> 0.000000341</t>
+  </si>
+  <si>
+    <t> 0.000245660</t>
+  </si>
+  <si>
+    <t> 0.000000099</t>
+  </si>
+  <si>
+    <t> 0.000259680</t>
+  </si>
+  <si>
+    <t> 0.000000460</t>
+  </si>
+  <si>
+    <t> 0.000284591</t>
+  </si>
+  <si>
+    <t> 0.000000679</t>
+  </si>
+  <si>
+    <t> 0.000315704</t>
+  </si>
+  <si>
+    <t> 0.000000631</t>
+  </si>
+  <si>
+    <t> 0.000335951</t>
+  </si>
+  <si>
+    <t> 0.000000761</t>
+  </si>
+  <si>
+    <t> 0.000365390</t>
+  </si>
+  <si>
+    <t> 0.000000029</t>
+  </si>
+  <si>
+    <t> 0.000388452</t>
+  </si>
+  <si>
+    <t> 0.000000449</t>
+  </si>
+  <si>
+    <t> 0.000429105</t>
+  </si>
+  <si>
+    <t> 0.000001949</t>
+  </si>
+  <si>
+    <t> 0.000489035</t>
+  </si>
+  <si>
+    <t> 0.000001089</t>
+  </si>
+  <si>
+    <t> 0.000549535</t>
+  </si>
+  <si>
+    <t> 0.000000060</t>
+  </si>
+  <si>
+    <t> 0.000575139</t>
+  </si>
+  <si>
+    <t> 0.000001840</t>
+  </si>
+  <si>
+    <t> 0.000611433</t>
+  </si>
+  <si>
+    <t> 0.000001820</t>
+  </si>
+  <si>
+    <t> 0.000634506</t>
+  </si>
+  <si>
+    <t> 0.000000980</t>
+  </si>
+  <si>
+    <t>lookup</t>
+  </si>
+  <si>
+    <t>fnv</t>
+  </si>
+  <si>
+    <t> 0.000013898</t>
+  </si>
+  <si>
+    <t> 0.000005472 </t>
+  </si>
+  <si>
+    <t> 0.000026119</t>
+  </si>
+  <si>
+    <t> 0.000011868 </t>
+  </si>
+  <si>
+    <t> 0.000039449</t>
+  </si>
+  <si>
+    <t> 0.000017631 </t>
+  </si>
+  <si>
+    <t> 0.000053224</t>
+  </si>
+  <si>
+    <t> 0.000025363 </t>
+  </si>
+  <si>
+    <t> 0.000068388</t>
+  </si>
+  <si>
+    <t> 0.000032597 </t>
+  </si>
+  <si>
+    <t> 0.000078755</t>
+  </si>
+  <si>
+    <t> 0.000033634 </t>
+  </si>
+  <si>
+    <t> 0.000092169</t>
+  </si>
+  <si>
+    <t> 0.000043228 </t>
+  </si>
+  <si>
+    <t> 0.000107156</t>
+  </si>
+  <si>
+    <t> 0.000051966 </t>
+  </si>
+  <si>
+    <t> 0.000115709</t>
+  </si>
+  <si>
+    <t> 0.000058637 </t>
+  </si>
+  <si>
+    <t> 0.000131812</t>
+  </si>
+  <si>
+    <t> 0.000064061 </t>
+  </si>
+  <si>
+    <t> 0.000147374</t>
+  </si>
+  <si>
+    <t> 0.000066638 </t>
+  </si>
+  <si>
+    <t> 0.000161392</t>
+  </si>
+  <si>
+    <t> 0.000076937 </t>
+  </si>
+  <si>
+    <t> 0.000172830</t>
+  </si>
+  <si>
+    <t> 0.000080092 </t>
+  </si>
+  <si>
+    <t> 0.000185495</t>
+  </si>
+  <si>
+    <t> 0.000096623 </t>
+  </si>
+  <si>
+    <t> 0.000199236</t>
+  </si>
+  <si>
+    <t> 0.000105803 </t>
+  </si>
+  <si>
+    <t> 0.000213820</t>
+  </si>
+  <si>
+    <t> 0.000109994 </t>
+  </si>
+  <si>
+    <t> 0.000239227</t>
+  </si>
+  <si>
+    <t> 0.000118649 </t>
+  </si>
+  <si>
+    <t> 0.000243892</t>
+  </si>
+  <si>
+    <t> 0.000128428 </t>
+  </si>
+  <si>
+    <t> 0.000263747</t>
+  </si>
+  <si>
+    <t> 0.000138202</t>
+  </si>
+  <si>
+    <t> 0.000272192</t>
+  </si>
+  <si>
+    <t> 0.000143021</t>
+  </si>
+  <si>
+    <t>T (BST)</t>
+  </si>
+  <si>
+    <t>T(Hash)</t>
   </si>
 </sst>
 </file>
@@ -289,7 +284,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -315,6 +310,7 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
@@ -322,7 +318,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
@@ -404,23 +399,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -500,12 +495,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
   <c:chart>
     <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
@@ -549,7 +544,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -731,7 +725,6 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -879,12 +872,17 @@
             </a:ln>
           </c:spPr>
         </c:hiLowLines>
+        <c:upDownBars>
+          <c:gapWidth val="150"/>
+          <c:upBars/>
+          <c:downBars/>
+        </c:upDownBars>
         <c:marker val="1"/>
-        <c:axId val="17126590"/>
-        <c:axId val="5147126"/>
+        <c:axId val="57956011"/>
+        <c:axId val="88710679"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17126590"/>
+        <c:axId val="57956011"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,7 +898,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
@@ -912,32 +909,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="5147126"/>
+        <c:crossAx val="88710679"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="5147126"/>
+        <c:axId val="88710679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +932,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -965,27 +943,8 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="17126590"/>
+        <c:crossAx val="57956011"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -997,7 +956,6 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1014,16 +972,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>741240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>297000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>292680</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561960</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1036,8 +994,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7159320" y="315000"/>
-          <a:ext cx="8820720" cy="5292360"/>
+          <a:off x="5748840" y="297000"/>
+          <a:ext cx="7046280" cy="5291640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1051,16 +1009,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>10800</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>688680</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>308160</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1073,8 +1031,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7106760" y="6136200"/>
-          <a:ext cx="9400680" cy="5640120"/>
+          <a:off x="5696280" y="6118200"/>
+          <a:ext cx="7464600" cy="5639400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>468720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>228240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>294840</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>222840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5476320" y="532080"/>
+          <a:ext cx="8291160" cy="4973760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1094,24 +1089,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>159480</xdr:colOff>
+      <xdr:colOff>213480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>462240</xdr:colOff>
+      <xdr:colOff>515520</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4455000" y="172440"/>
-        <a:ext cx="8113320" cy="3703680"/>
+        <a:off x="3621960" y="154440"/>
+        <a:ext cx="6499800" cy="3702960"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1132,16 +1127,15 @@
   <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q34" activeCellId="0" sqref="Q34"/>
+      <selection pane="topLeft" activeCell="V10" activeCellId="0" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="26.484693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.78571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1375,7 +1369,26 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0"/>
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0"/>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+    </row>
     <row r="26" customFormat="false" ht="22.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>0</v>
@@ -1617,237 +1630,27 @@
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3" t="n">
-        <v>2500</v>
-      </c>
-      <c r="B50" s="3" t="n">
-        <v>2400</v>
-      </c>
-      <c r="C50" s="3" t="n">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3" t="n">
-        <v>5000</v>
-      </c>
-      <c r="B51" s="3" t="n">
-        <v>4900</v>
-      </c>
-      <c r="C51" s="3" t="n">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="n">
-        <v>7500</v>
-      </c>
-      <c r="B52" s="3" t="n">
-        <v>7400</v>
-      </c>
-      <c r="C52" s="3" t="n">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="B53" s="3" t="n">
-        <v>9000</v>
-      </c>
-      <c r="C53" s="3" t="n">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="n">
-        <v>12500</v>
-      </c>
-      <c r="B54" s="3" t="n">
-        <v>12400</v>
-      </c>
-      <c r="C54" s="3" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="n">
-        <v>15000</v>
-      </c>
-      <c r="B55" s="3" t="n">
-        <v>14900</v>
-      </c>
-      <c r="C55" s="3" t="n">
-        <v>14500</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="n">
-        <v>17500</v>
-      </c>
-      <c r="B56" s="3" t="n">
-        <v>17400</v>
-      </c>
-      <c r="C56" s="3" t="n">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3" t="n">
-        <v>20000</v>
-      </c>
-      <c r="B57" s="3" t="n">
-        <v>19000</v>
-      </c>
-      <c r="C57" s="3" t="n">
-        <v>19500</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="n">
-        <v>22500</v>
-      </c>
-      <c r="B58" s="3" t="n">
-        <v>22400</v>
-      </c>
-      <c r="C58" s="3" t="n">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3" t="n">
-        <v>25000</v>
-      </c>
-      <c r="B59" s="3" t="n">
-        <v>24900</v>
-      </c>
-      <c r="C59" s="3" t="n">
-        <v>24250</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3" t="n">
-        <v>27500</v>
-      </c>
-      <c r="B60" s="3" t="n">
-        <v>27400</v>
-      </c>
-      <c r="C60" s="3" t="n">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="n">
-        <v>30000</v>
-      </c>
-      <c r="B61" s="3" t="n">
-        <v>29900</v>
-      </c>
-      <c r="C61" s="3" t="n">
-        <v>29500</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3" t="n">
-        <v>32500</v>
-      </c>
-      <c r="B62" s="3" t="n">
-        <v>32400</v>
-      </c>
-      <c r="C62" s="3" t="n">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3" t="n">
-        <v>35000</v>
-      </c>
-      <c r="B63" s="3" t="n">
-        <v>34900</v>
-      </c>
-      <c r="C63" s="3" t="n">
-        <v>34500</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3" t="n">
-        <v>37500</v>
-      </c>
-      <c r="B64" s="3" t="n">
-        <v>37400</v>
-      </c>
-      <c r="C64" s="3" t="n">
-        <v>37000</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3" t="n">
-        <v>40000</v>
-      </c>
-      <c r="B65" s="3" t="n">
-        <v>39900</v>
-      </c>
-      <c r="C65" s="3" t="n">
-        <v>39500</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3" t="n">
-        <v>42500</v>
-      </c>
-      <c r="B66" s="3" t="n">
-        <v>42400</v>
-      </c>
-      <c r="C66" s="3" t="n">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3" t="n">
-        <v>45000</v>
-      </c>
-      <c r="B67" s="3" t="n">
-        <v>44900</v>
-      </c>
-      <c r="C67" s="3" t="n">
-        <v>44500</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3" t="n">
-        <v>47500</v>
-      </c>
-      <c r="B68" s="3" t="n">
-        <v>47400</v>
-      </c>
-      <c r="C68" s="3" t="n">
-        <v>47000</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="B69" s="3" t="n">
-        <v>49900</v>
-      </c>
-      <c r="C69" s="3" t="n">
-        <v>49500</v>
-      </c>
-    </row>
+    <row r="49" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="20.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="23.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="22.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="25.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1873,9 +1676,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.78571428571429"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
